--- a/test_data/InputData.xlsx
+++ b/test_data/InputData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AEEFCF-91ED-4007-9A0F-8735F16813D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416532B1-A03E-4F35-ADA4-692743DD3F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>username</t>
   </si>
@@ -31,13 +31,22 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>exp</t>
-  </si>
-  <si>
     <t>standard_user</t>
   </si>
   <si>
     <t>secret_sauce</t>
+  </si>
+  <si>
+    <t>standard_user123</t>
+  </si>
+  <si>
+    <t>secret_sauce123</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>expected_status</t>
   </si>
 </sst>
 </file>
@@ -455,7 +464,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,34 +482,52 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
